--- a/Data/Test/dataset18/input_data.xlsx
+++ b/Data/Test/dataset18/input_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sueng\PycharmProjects\AI_SH_graph_rev_rev1\Data\Test\dataset18\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sueng\PycharmProjects\AI_SH_graph_rev_rev1\Data\Test\dataset19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1053BE1C-24D5-4DE1-9FAA-4C118A71E51E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E6FA6F-74D0-4FFA-8849-D108A0AAD901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
   <si>
     <t>id</t>
   </si>
@@ -571,14 +571,14 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="5" width="8.796875" style="1"/>
-    <col min="6" max="8" width="8.796875" style="2"/>
-    <col min="9" max="9" width="8.796875" style="3"/>
+    <col min="4" max="6" width="8.796875" style="1"/>
+    <col min="7" max="7" width="8.796875" style="2"/>
+    <col min="8" max="9" width="8.796875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
@@ -597,13 +597,13 @@
       <c r="E1" s="1">
         <v>4</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="1">
         <v>5</v>
       </c>
       <c r="G1" s="2">
         <v>6</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="3">
         <v>7</v>
       </c>
       <c r="I1" s="3">
@@ -626,13 +626,13 @@
       <c r="E2" s="1">
         <v>25</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>25</v>
       </c>
       <c r="G2" s="2">
         <v>25</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="3">
         <v>25</v>
       </c>
       <c r="I2" s="3">
@@ -655,13 +655,13 @@
       <c r="E3" s="1">
         <v>90</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>90</v>
       </c>
       <c r="G3" s="2">
         <v>90</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="3">
         <v>90</v>
       </c>
       <c r="I3" s="3">
@@ -684,13 +684,13 @@
       <c r="E4" s="1">
         <v>3</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>3</v>
       </c>
       <c r="G4" s="2">
         <v>3</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="3">
         <v>3</v>
       </c>
       <c r="I4" s="3">
@@ -713,13 +713,13 @@
       <c r="E5" s="1">
         <v>10</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>10</v>
       </c>
       <c r="G5" s="2">
         <v>10</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="3">
         <v>10</v>
       </c>
       <c r="I5" s="3">
@@ -742,13 +742,13 @@
       <c r="E6" s="1">
         <v>24</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>24</v>
       </c>
       <c r="G6" s="2">
         <v>24</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="3">
         <v>24</v>
       </c>
       <c r="I6" s="3">
@@ -771,13 +771,13 @@
       <c r="E7" s="1">
         <v>16</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>16</v>
       </c>
       <c r="G7" s="2">
         <v>16</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="3">
         <v>16</v>
       </c>
       <c r="I7" s="3">
@@ -800,13 +800,13 @@
       <c r="E8" s="1">
         <v>20</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>20</v>
       </c>
       <c r="G8" s="2">
         <v>20</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="3">
         <v>20</v>
       </c>
       <c r="I8" s="3">
@@ -829,13 +829,13 @@
       <c r="E9" s="1">
         <v>3</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>3</v>
       </c>
       <c r="G9" s="2">
         <v>3</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="3">
         <v>3</v>
       </c>
       <c r="I9" s="3">
@@ -858,14 +858,14 @@
       <c r="E10" s="1">
         <v>12</v>
       </c>
-      <c r="F10" s="2">
-        <v>20</v>
+      <c r="F10" s="1">
+        <v>12</v>
       </c>
       <c r="G10" s="2">
         <v>20</v>
       </c>
-      <c r="H10" s="2">
-        <v>20</v>
+      <c r="H10" s="3">
+        <v>12</v>
       </c>
       <c r="I10" s="3">
         <v>12</v>
@@ -887,13 +887,13 @@
       <c r="E11" s="1">
         <v>1</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>1</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="3">
         <v>1</v>
       </c>
       <c r="I11" s="3">
@@ -916,13 +916,13 @@
       <c r="E12" s="1">
         <v>20</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>20</v>
       </c>
       <c r="G12" s="2">
         <v>20</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="3">
         <v>20</v>
       </c>
       <c r="I12" s="3">
@@ -945,14 +945,14 @@
       <c r="E13" s="1">
         <v>1</v>
       </c>
-      <c r="F13" s="2">
-        <v>2</v>
+      <c r="F13" s="1">
+        <v>1</v>
       </c>
       <c r="G13" s="2">
         <v>2</v>
       </c>
-      <c r="H13" s="2">
-        <v>2</v>
+      <c r="H13" s="3">
+        <v>3</v>
       </c>
       <c r="I13" s="3">
         <v>3</v>
@@ -974,14 +974,14 @@
       <c r="E14" s="1">
         <v>12</v>
       </c>
-      <c r="F14" s="2">
-        <v>4</v>
+      <c r="F14" s="1">
+        <v>12</v>
       </c>
       <c r="G14" s="2">
         <v>4</v>
       </c>
-      <c r="H14" s="2">
-        <v>4</v>
+      <c r="H14" s="3">
+        <v>6</v>
       </c>
       <c r="I14" s="3">
         <v>6</v>
@@ -1003,13 +1003,13 @@
       <c r="E15" s="1">
         <v>8</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>8</v>
       </c>
       <c r="G15" s="2">
         <v>8</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="3">
         <v>8</v>
       </c>
       <c r="I15" s="3">
@@ -1032,13 +1032,13 @@
       <c r="E16" s="1">
         <v>2</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>2</v>
       </c>
       <c r="G16" s="2">
         <v>2</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="3">
         <v>2</v>
       </c>
       <c r="I16" s="3">
@@ -1061,13 +1061,13 @@
       <c r="E17" s="1">
         <v>20</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>20</v>
       </c>
       <c r="G17" s="2">
         <v>20</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="3">
         <v>20</v>
       </c>
       <c r="I17" s="3">
@@ -1090,16 +1090,14 @@
       <c r="E18" s="1">
         <v>-0.1</v>
       </c>
-      <c r="F18" s="2">
-        <f>-0.1</f>
+      <c r="F18" s="1">
         <v>-0.1</v>
       </c>
       <c r="G18" s="2">
         <f>-0.1</f>
         <v>-0.1</v>
       </c>
-      <c r="H18" s="2">
-        <f>-0.1</f>
+      <c r="H18" s="3">
         <v>-0.1</v>
       </c>
       <c r="I18" s="3">
@@ -1122,13 +1120,13 @@
       <c r="E19" s="1">
         <v>10</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <v>10</v>
       </c>
       <c r="G19" s="2">
         <v>10</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="3">
         <v>10</v>
       </c>
       <c r="I19" s="3">
@@ -1151,13 +1149,13 @@
       <c r="E20" s="1">
         <v>0.9</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>0.9</v>
       </c>
       <c r="G20" s="2">
         <v>0.9</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="3">
         <v>0.9</v>
       </c>
       <c r="I20" s="3">
@@ -1180,13 +1178,13 @@
       <c r="E21" s="1">
         <v>100</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>100</v>
       </c>
       <c r="G21" s="2">
         <v>100</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="3">
         <v>100</v>
       </c>
       <c r="I21" s="3">
@@ -1209,13 +1207,13 @@
       <c r="E22" s="1">
         <v>25</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>25</v>
       </c>
       <c r="G22" s="2">
         <v>25</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="3">
         <v>25</v>
       </c>
       <c r="I22" s="3">
@@ -1238,13 +1236,13 @@
       <c r="E23" s="1">
         <v>20</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <v>20</v>
       </c>
       <c r="G23" s="2">
         <v>20</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="3">
         <v>20</v>
       </c>
       <c r="I23" s="3">
@@ -1267,13 +1265,13 @@
       <c r="E24" s="1">
         <v>60</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <v>60</v>
       </c>
       <c r="G24" s="2">
         <v>60</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="3">
         <v>60</v>
       </c>
       <c r="I24" s="3">
@@ -1296,13 +1294,13 @@
       <c r="E25" s="1">
         <v>6000000</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <v>6000000</v>
       </c>
       <c r="G25" s="2">
         <v>6000000</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="3">
         <v>6000000</v>
       </c>
       <c r="I25" s="3">
@@ -1325,13 +1323,13 @@
       <c r="E26" s="1">
         <v>9300</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <v>9300</v>
       </c>
       <c r="G26" s="2">
         <v>9300</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="3">
         <v>9300</v>
       </c>
       <c r="I26" s="3">
@@ -1354,13 +1352,13 @@
       <c r="E27" s="1">
         <v>7.5</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="1">
         <v>7.5</v>
       </c>
       <c r="G27" s="2">
         <v>7.5</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="3">
         <v>7.5</v>
       </c>
       <c r="I27" s="3">
@@ -1383,13 +1381,13 @@
       <c r="E28" s="1">
         <v>4</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="1">
         <v>4</v>
       </c>
       <c r="G28" s="2">
         <v>4</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="3">
         <v>4</v>
       </c>
       <c r="I28" s="3">
@@ -1412,13 +1410,13 @@
       <c r="E29" s="1">
         <v>4</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="1">
         <v>4</v>
       </c>
       <c r="G29" s="2">
         <v>4</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="3">
         <v>4</v>
       </c>
       <c r="I29" s="3">
@@ -1441,13 +1439,13 @@
       <c r="E30" s="1">
         <v>4200</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="1">
         <v>4200</v>
       </c>
       <c r="G30" s="2">
         <v>4200</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="3">
         <v>4200</v>
       </c>
       <c r="I30" s="3">
@@ -1470,13 +1468,13 @@
       <c r="E31" s="1">
         <v>1100</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="1">
         <v>1100</v>
       </c>
       <c r="G31" s="2">
         <v>1100</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="3">
         <v>1100</v>
       </c>
       <c r="I31" s="3">
@@ -1499,13 +1497,13 @@
       <c r="E32" s="1">
         <v>10</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="1">
         <v>10</v>
       </c>
       <c r="G32" s="2">
         <v>10</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="3">
         <v>10</v>
       </c>
       <c r="I32" s="3">
@@ -1528,13 +1526,13 @@
       <c r="E33" s="1">
         <v>11</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="1">
         <v>11</v>
       </c>
       <c r="G33" s="2">
         <v>11</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="3">
         <v>11</v>
       </c>
       <c r="I33" s="3">
@@ -1557,13 +1555,13 @@
       <c r="E34" s="1">
         <v>6</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="1">
         <v>6</v>
       </c>
       <c r="G34" s="2">
         <v>6</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="3">
         <v>6</v>
       </c>
       <c r="I34" s="3">
@@ -1586,13 +1584,13 @@
       <c r="E35" s="1">
         <v>7</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="1">
         <v>7</v>
       </c>
       <c r="G35" s="2">
         <v>7</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="3">
         <v>7</v>
       </c>
       <c r="I35" s="3">
@@ -1615,13 +1613,13 @@
       <c r="E36" s="1">
         <v>2</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="1">
         <v>2</v>
       </c>
       <c r="G36" s="2">
         <v>2</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="3">
         <v>2</v>
       </c>
       <c r="I36" s="3">
@@ -1644,13 +1642,13 @@
       <c r="E37" s="1">
         <v>3</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="1">
         <v>3</v>
       </c>
       <c r="G37" s="2">
         <v>3</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="3">
         <v>3</v>
       </c>
       <c r="I37" s="3">
@@ -1673,13 +1671,13 @@
       <c r="E38" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H38" s="3" t="s">
         <v>39</v>
       </c>
       <c r="I38" s="3" t="s">
